--- a/doc/接口表.xlsx
+++ b/doc/接口表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ONE-CCS\_School\毕设\xgg\leave_approval_management_system\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D183FDF8-96F1-4A0D-98FE-39E51CA7A792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17698929-EE08-4103-9E04-60187A685824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{EEF6699F-1904-4975-8282-C7E043C76300}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEF6699F-1904-4975-8282-C7E043C76300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="26">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,34 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,21 +163,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,15 +180,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -178,23 +205,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,121 +561,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5940B889-03A5-42E2-91C7-0EC101A862C0}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="B15:C15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="56" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
